--- a/inst/dados_premissas/2023/consumidores_residenciais_renda.xlsx
+++ b/inst/dados_premissas/2023/consumidores_residenciais_renda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\projetos\epe4md-git3\inst\dados_premissas\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5896D97-D00A-4BDD-A28B-0786066B18E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B7A22-3F87-49C0-B529-E520AFA377F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>ETO</t>
   </si>
   <si>
-    <t>FORCEL</t>
-  </si>
-  <si>
     <t>HIDROPAN</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>EQUATORIAL GO</t>
+  </si>
+  <si>
+    <t>PACTO</t>
   </si>
 </sst>
 </file>
@@ -275,9 +275,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -315,9 +315,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,26 +350,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,26 +385,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,7 +777,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>1661584</v>
@@ -869,7 +835,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10">
         <v>114651</v>
@@ -1623,7 +1589,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>1872039</v>
@@ -1971,7 +1937,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>5342</v>
@@ -2000,7 +1966,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>15576</v>
@@ -2029,7 +1995,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>3136483</v>
@@ -2058,7 +2024,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>8386</v>
@@ -2087,7 +2053,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>24654</v>
@@ -2116,7 +2082,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>1985410</v>
@@ -2145,7 +2111,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>89489</v>
@@ -2174,7 +2140,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>9517</v>

--- a/inst/dados_premissas/2023/consumidores_residenciais_renda.xlsx
+++ b/inst/dados_premissas/2023/consumidores_residenciais_renda.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos Locais\codigos-R\epe4md\inst\dados_premissas\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296B7A22-3F87-49C0-B529-E520AFA377F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59957627-4B1A-4FC6-88C5-5CE380E0ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>nome_4md</t>
   </si>
@@ -109,9 +122,6 @@
     <t>EAC</t>
   </si>
   <si>
-    <t>EBO</t>
-  </si>
-  <si>
     <t>EDP ES</t>
   </si>
   <si>
@@ -133,9 +143,6 @@
     <t>ELFSM</t>
   </si>
   <si>
-    <t>EMG</t>
-  </si>
-  <si>
     <t>EMS</t>
   </si>
   <si>
@@ -151,9 +158,6 @@
     <t>ENEL SP</t>
   </si>
   <si>
-    <t>ENF</t>
-  </si>
-  <si>
     <t>EPB</t>
   </si>
   <si>
@@ -209,6 +213,9 @@
   </si>
   <si>
     <t>PACTO</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -561,18 +568,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -630,7 +637,7 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -659,7 +666,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -688,7 +695,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -717,7 +724,7 @@
         <v>19335</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -746,7 +753,7 @@
         <v>11731</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -775,9 +782,9 @@
         <v>15889</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8">
         <v>1661584</v>
@@ -804,7 +811,7 @@
         <v>5351</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -833,9 +840,9 @@
         <v>48465</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <v>114651</v>
@@ -862,7 +869,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -891,7 +898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -920,7 +927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -949,7 +956,7 @@
         <v>19198</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -978,7 +985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>28312</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>6027</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>28385</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1210,7 +1217,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1239,932 +1246,874 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>148494</v>
+        <v>995754</v>
       </c>
       <c r="C24">
-        <v>30711</v>
+        <v>276741</v>
       </c>
       <c r="D24">
-        <v>9163</v>
+        <v>110403</v>
       </c>
       <c r="E24">
-        <v>8137</v>
+        <v>91510</v>
       </c>
       <c r="F24">
-        <v>6862</v>
+        <v>73433</v>
       </c>
       <c r="G24">
-        <v>1443</v>
+        <v>15076</v>
       </c>
       <c r="H24">
-        <v>1167</v>
+        <v>11547</v>
       </c>
       <c r="I24">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>9510</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>995754</v>
+        <v>1248614</v>
       </c>
       <c r="C25">
-        <v>276741</v>
+        <v>381331</v>
       </c>
       <c r="D25">
-        <v>110403</v>
+        <v>172614</v>
       </c>
       <c r="E25">
-        <v>91510</v>
+        <v>151107</v>
       </c>
       <c r="F25">
-        <v>73433</v>
+        <v>96854</v>
       </c>
       <c r="G25">
-        <v>15076</v>
+        <v>16607</v>
       </c>
       <c r="H25">
-        <v>11547</v>
+        <v>12645</v>
       </c>
       <c r="I25">
-        <v>9510</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>1248614</v>
+        <v>3965</v>
       </c>
       <c r="C26">
-        <v>381331</v>
+        <v>1291</v>
       </c>
       <c r="D26">
-        <v>172614</v>
+        <v>740</v>
       </c>
       <c r="E26">
-        <v>151107</v>
+        <v>575</v>
       </c>
       <c r="F26">
-        <v>96854</v>
+        <v>243</v>
       </c>
       <c r="G26">
-        <v>16607</v>
+        <v>23</v>
       </c>
       <c r="H26">
-        <v>12645</v>
+        <v>12</v>
       </c>
       <c r="I26">
-        <v>8582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>3965</v>
+        <v>7777</v>
       </c>
       <c r="C27">
-        <v>1291</v>
+        <v>2863</v>
       </c>
       <c r="D27">
-        <v>740</v>
+        <v>1349</v>
       </c>
       <c r="E27">
-        <v>575</v>
+        <v>960</v>
       </c>
       <c r="F27">
-        <v>243</v>
+        <v>485</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>7777</v>
+        <v>1546669</v>
       </c>
       <c r="C28">
-        <v>2863</v>
+        <v>500120</v>
       </c>
       <c r="D28">
-        <v>1349</v>
+        <v>214411</v>
       </c>
       <c r="E28">
-        <v>960</v>
+        <v>165583</v>
       </c>
       <c r="F28">
-        <v>485</v>
+        <v>95951</v>
       </c>
       <c r="G28">
-        <v>59</v>
+        <v>13914</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>10685</v>
       </c>
       <c r="I28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>1546669</v>
+        <v>25391</v>
       </c>
       <c r="C29">
-        <v>500120</v>
+        <v>8369</v>
       </c>
       <c r="D29">
-        <v>214411</v>
+        <v>3492</v>
       </c>
       <c r="E29">
-        <v>165583</v>
+        <v>2704</v>
       </c>
       <c r="F29">
-        <v>95951</v>
+        <v>1828</v>
       </c>
       <c r="G29">
-        <v>13914</v>
+        <v>261</v>
       </c>
       <c r="H29">
-        <v>10685</v>
+        <v>225</v>
       </c>
       <c r="I29">
-        <v>7433</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>25391</v>
+        <v>89093</v>
       </c>
       <c r="C30">
-        <v>8369</v>
+        <v>27655</v>
       </c>
       <c r="D30">
-        <v>3492</v>
+        <v>7760</v>
       </c>
       <c r="E30">
-        <v>2704</v>
+        <v>5928</v>
       </c>
       <c r="F30">
-        <v>1828</v>
+        <v>3785</v>
       </c>
       <c r="G30">
-        <v>261</v>
+        <v>554</v>
       </c>
       <c r="H30">
-        <v>225</v>
+        <v>412</v>
       </c>
       <c r="I30">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>89093</v>
+        <v>708626</v>
       </c>
       <c r="C31">
-        <v>27655</v>
+        <v>210180</v>
       </c>
       <c r="D31">
-        <v>7760</v>
+        <v>78705</v>
       </c>
       <c r="E31">
-        <v>5928</v>
+        <v>62698</v>
       </c>
       <c r="F31">
-        <v>3785</v>
+        <v>50723</v>
       </c>
       <c r="G31">
-        <v>554</v>
+        <v>8735</v>
       </c>
       <c r="H31">
-        <v>412</v>
+        <v>7323</v>
       </c>
       <c r="I31">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>293219</v>
+        <v>904565</v>
       </c>
       <c r="C32">
-        <v>80197</v>
+        <v>259605</v>
       </c>
       <c r="D32">
-        <v>24417</v>
+        <v>109591</v>
       </c>
       <c r="E32">
-        <v>17847</v>
+        <v>82152</v>
       </c>
       <c r="F32">
-        <v>11966</v>
+        <v>58359</v>
       </c>
       <c r="G32">
-        <v>1783</v>
+        <v>9164</v>
       </c>
       <c r="H32">
-        <v>1322</v>
+        <v>8258</v>
       </c>
       <c r="I32">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>708626</v>
+        <v>2343987</v>
       </c>
       <c r="C33">
-        <v>210180</v>
+        <v>384225</v>
       </c>
       <c r="D33">
-        <v>78705</v>
+        <v>104073</v>
       </c>
       <c r="E33">
-        <v>62698</v>
+        <v>91295</v>
       </c>
       <c r="F33">
-        <v>50723</v>
+        <v>76062</v>
       </c>
       <c r="G33">
-        <v>8735</v>
+        <v>15628</v>
       </c>
       <c r="H33">
-        <v>7323</v>
+        <v>14288</v>
       </c>
       <c r="I33">
-        <v>6332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>1872039</v>
+      </c>
+      <c r="C34">
+        <v>553213</v>
+      </c>
+      <c r="D34">
+        <v>209504</v>
+      </c>
+      <c r="E34">
+        <v>159287</v>
+      </c>
+      <c r="F34">
+        <v>123120</v>
+      </c>
+      <c r="G34">
+        <v>20984</v>
+      </c>
+      <c r="H34">
+        <v>18874</v>
+      </c>
+      <c r="I34">
+        <v>16003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>904565</v>
-      </c>
-      <c r="C34">
-        <v>259605</v>
-      </c>
-      <c r="D34">
-        <v>109591</v>
-      </c>
-      <c r="E34">
-        <v>82152</v>
-      </c>
-      <c r="F34">
-        <v>58359</v>
-      </c>
-      <c r="G34">
-        <v>9164</v>
-      </c>
-      <c r="H34">
-        <v>8258</v>
-      </c>
-      <c r="I34">
-        <v>6328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1858874</v>
+      </c>
+      <c r="C35">
+        <v>520927</v>
+      </c>
+      <c r="D35">
+        <v>204502</v>
+      </c>
+      <c r="E35">
+        <v>163903</v>
+      </c>
+      <c r="F35">
+        <v>125089</v>
+      </c>
+      <c r="G35">
+        <v>24596</v>
+      </c>
+      <c r="H35">
+        <v>19284</v>
+      </c>
+      <c r="I35">
+        <v>14347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>2343987</v>
-      </c>
-      <c r="C35">
-        <v>384225</v>
-      </c>
-      <c r="D35">
-        <v>104073</v>
-      </c>
-      <c r="E35">
-        <v>91295</v>
-      </c>
-      <c r="F35">
-        <v>76062</v>
-      </c>
-      <c r="G35">
-        <v>15628</v>
-      </c>
-      <c r="H35">
-        <v>14288</v>
-      </c>
-      <c r="I35">
-        <v>12020</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>61</v>
-      </c>
       <c r="B36">
-        <v>1872039</v>
+        <v>5152582</v>
       </c>
       <c r="C36">
-        <v>553213</v>
+        <v>1429616</v>
       </c>
       <c r="D36">
-        <v>209504</v>
+        <v>667424</v>
       </c>
       <c r="E36">
-        <v>159287</v>
+        <v>626115</v>
       </c>
       <c r="F36">
-        <v>123120</v>
+        <v>535413</v>
       </c>
       <c r="G36">
-        <v>20984</v>
+        <v>125422</v>
       </c>
       <c r="H36">
-        <v>18874</v>
+        <v>116339</v>
       </c>
       <c r="I36">
-        <v>16003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>114572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>1858874</v>
+        <v>859307</v>
       </c>
       <c r="C37">
-        <v>520927</v>
+        <v>143876</v>
       </c>
       <c r="D37">
-        <v>204502</v>
+        <v>40044</v>
       </c>
       <c r="E37">
-        <v>163903</v>
+        <v>37252</v>
       </c>
       <c r="F37">
-        <v>125089</v>
+        <v>31159</v>
       </c>
       <c r="G37">
-        <v>24596</v>
+        <v>5874</v>
       </c>
       <c r="H37">
-        <v>19284</v>
+        <v>4775</v>
       </c>
       <c r="I37">
-        <v>14347</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>5152582</v>
+        <v>1862814</v>
       </c>
       <c r="C38">
-        <v>1429616</v>
+        <v>375816</v>
       </c>
       <c r="D38">
-        <v>667424</v>
+        <v>116528</v>
       </c>
       <c r="E38">
-        <v>626115</v>
+        <v>93472</v>
       </c>
       <c r="F38">
-        <v>535413</v>
+        <v>72270</v>
       </c>
       <c r="G38">
-        <v>125422</v>
+        <v>12768</v>
       </c>
       <c r="H38">
-        <v>116339</v>
+        <v>10098</v>
       </c>
       <c r="I38">
-        <v>114572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>8135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>61000</v>
+        <v>832630</v>
       </c>
       <c r="C39">
-        <v>21151</v>
+        <v>132278</v>
       </c>
       <c r="D39">
-        <v>7170</v>
+        <v>39375</v>
       </c>
       <c r="E39">
-        <v>5520</v>
+        <v>31401</v>
       </c>
       <c r="F39">
-        <v>4292</v>
+        <v>25042</v>
       </c>
       <c r="G39">
-        <v>813</v>
+        <v>5064</v>
       </c>
       <c r="H39">
-        <v>612</v>
+        <v>4132</v>
       </c>
       <c r="I39">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>898290</v>
+        <v>451368</v>
       </c>
       <c r="C40">
-        <v>150021</v>
+        <v>126758</v>
       </c>
       <c r="D40">
-        <v>42271</v>
+        <v>47020</v>
       </c>
       <c r="E40">
-        <v>37802</v>
+        <v>38378</v>
       </c>
       <c r="F40">
-        <v>31589</v>
+        <v>26392</v>
       </c>
       <c r="G40">
-        <v>6804</v>
+        <v>3979</v>
       </c>
       <c r="H40">
-        <v>5869</v>
+        <v>3185</v>
       </c>
       <c r="I40">
-        <v>4766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>859307</v>
+        <v>475458</v>
       </c>
       <c r="C41">
-        <v>143876</v>
+        <v>87552</v>
       </c>
       <c r="D41">
-        <v>40044</v>
+        <v>27775</v>
       </c>
       <c r="E41">
-        <v>37252</v>
+        <v>27826</v>
       </c>
       <c r="F41">
-        <v>31159</v>
+        <v>25963</v>
       </c>
       <c r="G41">
-        <v>5874</v>
+        <v>5428</v>
       </c>
       <c r="H41">
-        <v>4775</v>
+        <v>4280</v>
       </c>
       <c r="I41">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>1862814</v>
+        <v>539592</v>
       </c>
       <c r="C42">
-        <v>375816</v>
+        <v>179467</v>
       </c>
       <c r="D42">
-        <v>116528</v>
+        <v>71212</v>
       </c>
       <c r="E42">
-        <v>93472</v>
+        <v>54612</v>
       </c>
       <c r="F42">
-        <v>72270</v>
+        <v>33826</v>
       </c>
       <c r="G42">
-        <v>12768</v>
+        <v>5182</v>
       </c>
       <c r="H42">
-        <v>10098</v>
+        <v>4442</v>
       </c>
       <c r="I42">
-        <v>8135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>401745</v>
+      </c>
+      <c r="C43">
+        <v>86143</v>
+      </c>
+      <c r="D43">
+        <v>27993</v>
+      </c>
+      <c r="E43">
+        <v>24986</v>
+      </c>
+      <c r="F43">
+        <v>21656</v>
+      </c>
+      <c r="G43">
+        <v>3563</v>
+      </c>
+      <c r="H43">
+        <v>2883</v>
+      </c>
+      <c r="I43">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44">
+        <v>5342</v>
+      </c>
+      <c r="C44">
+        <v>1712</v>
+      </c>
+      <c r="D44">
+        <v>713</v>
+      </c>
+      <c r="E44">
+        <v>460</v>
+      </c>
+      <c r="F44">
+        <v>317</v>
+      </c>
+      <c r="G44">
         <v>47</v>
       </c>
-      <c r="B43">
-        <v>832630</v>
-      </c>
-      <c r="C43">
-        <v>132278</v>
-      </c>
-      <c r="D43">
-        <v>39375</v>
-      </c>
-      <c r="E43">
-        <v>31401</v>
-      </c>
-      <c r="F43">
-        <v>25042</v>
-      </c>
-      <c r="G43">
-        <v>5064</v>
-      </c>
-      <c r="H43">
-        <v>4132</v>
-      </c>
-      <c r="I43">
-        <v>3654</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>451368</v>
-      </c>
-      <c r="C44">
-        <v>126758</v>
-      </c>
-      <c r="D44">
-        <v>47020</v>
-      </c>
-      <c r="E44">
-        <v>38378</v>
-      </c>
-      <c r="F44">
-        <v>26392</v>
-      </c>
-      <c r="G44">
-        <v>3979</v>
-      </c>
       <c r="H44">
-        <v>3185</v>
+        <v>31</v>
       </c>
       <c r="I44">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>475458</v>
+        <v>15576</v>
       </c>
       <c r="C45">
-        <v>87552</v>
+        <v>5342</v>
       </c>
       <c r="D45">
-        <v>27775</v>
+        <v>2576</v>
       </c>
       <c r="E45">
-        <v>27826</v>
+        <v>1848</v>
       </c>
       <c r="F45">
-        <v>25963</v>
+        <v>1063</v>
       </c>
       <c r="G45">
-        <v>5428</v>
+        <v>187</v>
       </c>
       <c r="H45">
-        <v>4280</v>
+        <v>110</v>
       </c>
       <c r="I45">
-        <v>3328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>539592</v>
+        <v>3136483</v>
       </c>
       <c r="C46">
-        <v>179467</v>
+        <v>834935</v>
       </c>
       <c r="D46">
-        <v>71212</v>
+        <v>364387</v>
       </c>
       <c r="E46">
-        <v>54612</v>
+        <v>331458</v>
       </c>
       <c r="F46">
-        <v>33826</v>
+        <v>304342</v>
       </c>
       <c r="G46">
-        <v>5182</v>
+        <v>76067</v>
       </c>
       <c r="H46">
-        <v>4442</v>
+        <v>64499</v>
       </c>
       <c r="I46">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+        <v>60626</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>401745</v>
+        <v>8386</v>
       </c>
       <c r="C47">
-        <v>86143</v>
+        <v>2961</v>
       </c>
       <c r="D47">
-        <v>27993</v>
+        <v>1330</v>
       </c>
       <c r="E47">
-        <v>24986</v>
+        <v>1024</v>
       </c>
       <c r="F47">
-        <v>21656</v>
+        <v>697</v>
       </c>
       <c r="G47">
-        <v>3563</v>
+        <v>91</v>
       </c>
       <c r="H47">
-        <v>2883</v>
+        <v>79</v>
       </c>
       <c r="I47">
-        <v>2551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>5342</v>
+        <v>24654</v>
       </c>
       <c r="C48">
-        <v>1712</v>
+        <v>4381</v>
       </c>
       <c r="D48">
-        <v>713</v>
+        <v>1028</v>
       </c>
       <c r="E48">
-        <v>460</v>
+        <v>823</v>
       </c>
       <c r="F48">
-        <v>317</v>
+        <v>557</v>
       </c>
       <c r="G48">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H48">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>15576</v>
+        <v>1985410</v>
       </c>
       <c r="C49">
-        <v>5342</v>
+        <v>642522</v>
       </c>
       <c r="D49">
-        <v>2576</v>
+        <v>273775</v>
       </c>
       <c r="E49">
-        <v>1848</v>
+        <v>214300</v>
       </c>
       <c r="F49">
-        <v>1063</v>
+        <v>136980</v>
       </c>
       <c r="G49">
-        <v>187</v>
+        <v>22276</v>
       </c>
       <c r="H49">
-        <v>110</v>
+        <v>16347</v>
       </c>
       <c r="I49">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>3136483</v>
+        <v>89489</v>
       </c>
       <c r="C50">
-        <v>834935</v>
+        <v>12240</v>
       </c>
       <c r="D50">
-        <v>364387</v>
+        <v>2899</v>
       </c>
       <c r="E50">
-        <v>331458</v>
+        <v>2413</v>
       </c>
       <c r="F50">
-        <v>304342</v>
+        <v>1574</v>
       </c>
       <c r="G50">
-        <v>76067</v>
+        <v>209</v>
       </c>
       <c r="H50">
-        <v>64499</v>
+        <v>135</v>
       </c>
       <c r="I50">
-        <v>60626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>8386</v>
+        <v>9517</v>
       </c>
       <c r="C51">
-        <v>2961</v>
+        <v>2796</v>
       </c>
       <c r="D51">
-        <v>1330</v>
+        <v>887</v>
       </c>
       <c r="E51">
-        <v>1024</v>
+        <v>759</v>
       </c>
       <c r="F51">
-        <v>697</v>
+        <v>497</v>
       </c>
       <c r="G51">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="H51">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="I51">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>24654</v>
+        <v>354219</v>
       </c>
       <c r="C52">
-        <v>4381</v>
+        <v>101348</v>
       </c>
       <c r="D52">
-        <v>1028</v>
+        <v>31587</v>
       </c>
       <c r="E52">
-        <v>823</v>
+        <v>23367</v>
       </c>
       <c r="F52">
-        <v>557</v>
+        <v>16258</v>
       </c>
       <c r="G52">
-        <v>70</v>
+        <v>2596</v>
       </c>
       <c r="H52">
-        <v>56</v>
+        <v>1934</v>
       </c>
       <c r="I52">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B53">
-        <v>1985410</v>
+        <v>1046784</v>
       </c>
       <c r="C53">
-        <v>642522</v>
+        <v>180732</v>
       </c>
       <c r="D53">
-        <v>273775</v>
+        <v>51434</v>
       </c>
       <c r="E53">
-        <v>214300</v>
+        <v>45939</v>
       </c>
       <c r="F53">
-        <v>136980</v>
+        <v>38451</v>
       </c>
       <c r="G53">
-        <v>22276</v>
+        <v>8247</v>
       </c>
       <c r="H53">
-        <v>16347</v>
+        <v>7036</v>
       </c>
       <c r="I53">
-        <v>11855</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
-        <v>89489</v>
-      </c>
-      <c r="C54">
-        <v>12240</v>
-      </c>
-      <c r="D54">
-        <v>2899</v>
-      </c>
-      <c r="E54">
-        <v>2413</v>
-      </c>
-      <c r="F54">
-        <v>1574</v>
-      </c>
-      <c r="G54">
-        <v>209</v>
-      </c>
-      <c r="H54">
-        <v>135</v>
-      </c>
-      <c r="I54">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>9517</v>
-      </c>
-      <c r="C55">
-        <v>2796</v>
-      </c>
-      <c r="D55">
-        <v>887</v>
-      </c>
-      <c r="E55">
-        <v>759</v>
-      </c>
-      <c r="F55">
-        <v>497</v>
-      </c>
-      <c r="G55">
-        <v>68</v>
-      </c>
-      <c r="H55">
-        <v>48</v>
-      </c>
-      <c r="I55">
-        <v>45</v>
+        <v>5583</v>
       </c>
     </row>
   </sheetData>
